--- a/Versuch10/datasets/schwing2.xlsx
+++ b/Versuch10/datasets/schwing2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch10\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{199AFC03-D8B4-47C5-ACE7-00BD6EF064D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38960BED-8E30-4CB4-8091-96F9E5D3C2C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="6036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,41 +1076,43 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
+        <f>B2/D2</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <f>C2/SQRT(D2)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G2">
         <f>2*PI()/E2</f>
         <v>6.2831853071795862</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f>SQRT(G2^2+H2^2/4)</f>
-        <v>6.7622790244382429</v>
+        <v>6.3030482787582578</v>
       </c>
       <c r="J2">
         <f>2*PI()/I2</f>
-        <v>0.9291520335781388</v>
+        <v>0.99684867215032902</v>
       </c>
       <c r="K2">
-        <f>C2/SQRT(D2)</f>
-        <v>0.1</v>
+        <f t="shared" ref="K2:K11" si="0">C2/SQRT(D2)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L2">
         <v>8.83</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -1128,39 +1130,40 @@
         <v>98000</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S11" si="0">R2*0.0002</f>
+        <f t="shared" ref="S2:S11" si="1">R2*0.0002</f>
         <v>19.600000000000001</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T11" si="1">4000*N2*9.8/(P2^2*PI())</f>
-        <v>779.85922115028723</v>
+        <f>4000*N2*9.806/(P2^2*PI())</f>
+        <v>780.33668597956284</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <f>T2*SQRT((O2/N2)^2+4*(Q2/P2)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V2">
         <f>R2+T2</f>
-        <v>98779.859221150284</v>
+        <v>98780.336685979564</v>
       </c>
       <c r="W2">
         <f>SQRT(S2^2+U2^2)</f>
-        <v>19.625493624365223</v>
+        <v>32.771302089896338</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X11" si="2">10^6*64*L2*N2/(E2^2*P2^4*(R2+T2))</f>
-        <v>1.3967295670174307</v>
+        <v>1.3967228157826543</v>
       </c>
       <c r="Y2">
         <f>X2*SQRT((O2/N2)^2+(M2/L2)^2+4*(F2/E2)^2+16*(Q2/P2)^2+(W2/V2^2))</f>
-        <v>0.2853222147412604</v>
+        <v>0.20521111269043452</v>
       </c>
       <c r="Z2">
         <f>10^6*64*L2*N2/(J2^2*P2^4*(R2+T2))</f>
-        <v>1.6178518997650184</v>
+        <v>1.4055676663398644</v>
       </c>
       <c r="AB2">
         <f>AVERAGE(X2:X11)</f>
-        <v>1.3965186208760447</v>
+        <v>1.3965118706608979</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1174,16 +1177,19 @@
         <v>3.99</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <f>C2</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
+        <f>B3/D3</f>
         <v>0.99750000000000005</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <f>C3/SQRT(D3)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="3">2*PI()/E3</f>
@@ -1191,19 +1197,19 @@
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="4">SQRT(G3^2+H3^2/4)</f>
-        <v>6.7769131902248994</v>
+        <v>6.3187461088292052</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" si="5">2*PI()/I3</f>
-        <v>0.92714560904255461</v>
+        <v>0.99437217431478542</v>
       </c>
       <c r="K3">
-        <f>C3/SQRT(D3)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L3">
         <f>L2</f>
@@ -1211,7 +1217,7 @@
       </c>
       <c r="M3">
         <f>M2</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N3">
         <f>N2</f>
@@ -1232,35 +1238,36 @@
         <v>98000</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" ref="T3:T11" si="6">4000*N3*9.806/(P3^2*PI())</f>
+        <v>780.33668597956284</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <f>T3*SQRT((O3/N3)^2+4*(Q3/P3)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V11" si="6">R3+T3</f>
-        <v>98779.859221150284</v>
+        <f t="shared" ref="V3:V11" si="7">R3+T3</f>
+        <v>98780.336685979564</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W11" si="7">SQRT(S3^2+U3^2)</f>
-        <v>19.625493624365223</v>
+        <f t="shared" ref="W3:W11" si="8">SQRT(S3^2+U3^2)</f>
+        <v>32.771302089896338</v>
       </c>
       <c r="X3">
         <f>10^6*64*L3*N3/(E3^2*P3^4*(R3+T3))</f>
-        <v>1.403739491101117</v>
+        <v>1.4037327059831575</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y11" si="8">X3*SQRT((O3/N3)^2+(M3/L3)^2+4*(F3/E3)^2+16*(Q3/P3)^2+(W3/V3^2))</f>
-        <v>0.28744311994519806</v>
+        <f t="shared" ref="Y3:Y11" si="9">X3*SQRT((O3/N3)^2+(M3/L3)^2+4*(F3/E3)^2+16*(Q3/P3)^2+(W3/V3^2))</f>
+        <v>0.2067171330107013</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z11" si="9">10^6*64*L3*N3/(J3^2*P3^4*(R3+T3))</f>
-        <v>1.6248618238487045</v>
+        <f t="shared" ref="Z3:Z11" si="10">10^6*64*L3*N3/(J3^2*P3^4*(R3+T3))</f>
+        <v>1.4125775565403671</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1274,44 +1281,47 @@
         <v>4.03</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <f t="shared" ref="C4:C11" si="11">C3</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
+        <f>B4/D4</f>
         <v>1.0075000000000001</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <f>C4/SQRT(D4)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
         <v>6.2364122155628641</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="10">H3</f>
-        <v>5</v>
+        <f t="shared" ref="H4:H11" si="12">H3</f>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>6.7188419628996865</v>
+        <v>6.2564236846957311</v>
       </c>
       <c r="J4">
         <f t="shared" si="5"/>
-        <v>0.93515896666036757</v>
+        <v>1.0042774632653666</v>
       </c>
       <c r="K4">
-        <f>C4/SQRT(D4)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:M11" si="11">L3</f>
+        <f t="shared" ref="L4:M11" si="13">L3</f>
         <v>8.83</v>
       </c>
       <c r="M4">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N4">
         <f>N3</f>
@@ -1321,7 +1331,7 @@
         <v>0.5</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P11" si="12">P3</f>
+        <f t="shared" ref="P4:P11" si="14">P3</f>
         <v>16</v>
       </c>
       <c r="Q4">
@@ -1332,35 +1342,36 @@
         <v>98000</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <f>T4*SQRT((O4/N4)^2+4*(Q4/P4)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V4">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W4">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X4">
         <f t="shared" si="2"/>
-        <v>1.376011986545012</v>
+        <v>1.3760053354507733</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="8"/>
-        <v>0.27908462191927186</v>
+        <f t="shared" si="9"/>
+        <v>0.20078157672777519</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="9"/>
-        <v>1.5971343192925995</v>
+        <f t="shared" si="10"/>
+        <v>1.3848501860079829</v>
       </c>
       <c r="AB4" t="s">
         <v>26</v>
@@ -1377,54 +1388,57 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
+        <f>B5/D5</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <f>C5/SQRT(D5)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="H5">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>6.7622790244382429</v>
+        <v>6.3030482787582578</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>0.9291520335781388</v>
+        <v>0.99684867215032902</v>
       </c>
       <c r="K5">
-        <f>C5/SQRT(D5)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M5">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N11" si="13">N4</f>
+        <f t="shared" ref="N5:N11" si="15">N4</f>
         <v>16</v>
       </c>
       <c r="O5">
         <v>0.5</v>
       </c>
       <c r="P5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q5">
@@ -1435,39 +1449,40 @@
         <v>98000</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <f>T5*SQRT((O5/N5)^2+4*(Q5/P5)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V5">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W5">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>1.3967295670174307</v>
+        <v>1.3967228157826543</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="8"/>
-        <v>0.2853222147412604</v>
+        <f t="shared" si="9"/>
+        <v>0.20521111269043452</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="9"/>
-        <v>1.6178518997650184</v>
+        <f t="shared" si="10"/>
+        <v>1.4055676663398644</v>
       </c>
       <c r="AB5">
         <f>AVERAGE(Y2:Y11)</f>
-        <v>0.28530664654281657</v>
+        <v>0.20519955061045492</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1481,54 +1496,57 @@
         <v>3.95</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
+        <f>B6/D6</f>
         <v>0.98750000000000004</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <f>C6/SQRT(D6)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>6.362719298409707</v>
       </c>
       <c r="H6">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>6.8362414286181634</v>
+        <v>6.382334750728397</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>0.91909938711009387</v>
+        <v>0.98446501986792601</v>
       </c>
       <c r="K6">
-        <f>C6/SQRT(D6)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M6">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O6">
         <v>0.5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q6">
@@ -1539,35 +1557,36 @@
         <v>98000</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <f>T6*SQRT((O6/N6)^2+4*(Q6/P6)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V6">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W6">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X6">
         <f t="shared" si="2"/>
-        <v>1.4323136082216883</v>
+        <v>1.4323066849878203</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="8"/>
-        <v>0.29614235821565282</v>
+        <f t="shared" si="9"/>
+        <v>0.21289375750125766</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="9"/>
-        <v>1.6534359409692754</v>
+        <f t="shared" si="10"/>
+        <v>1.4411515355450299</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1581,54 +1600,57 @@
         <v>3.93</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
+        <f>B7/D7</f>
         <v>0.98250000000000004</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <f>C7/SQRT(D7)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>6.3950995492921994</v>
       </c>
       <c r="H7">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>6.8663890251978366</v>
+        <v>6.4146159858059537</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>0.91506398546921142</v>
+        <v>0.97951074874673827</v>
       </c>
       <c r="K7">
-        <f>C7/SQRT(D7)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M7">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O7">
         <v>0.5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q7">
@@ -1639,35 +1661,36 @@
         <v>98000</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <f>T7*SQRT((O7/N7)^2+4*(Q7/P7)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V7">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W7">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
-        <v>1.446928958573956</v>
+        <v>1.4469219646953018</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="8"/>
-        <v>0.30062520720377373</v>
+        <f t="shared" si="9"/>
+        <v>0.21607632219776635</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>1.6680512913215437</v>
+        <f t="shared" si="10"/>
+        <v>1.4557668152525114</v>
       </c>
       <c r="AB7" t="s">
         <v>35</v>
@@ -1684,54 +1707,57 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
+        <f>B8/D8</f>
         <v>1.0049999999999999</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <f>C8/SQRT(D8)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>6.2519256787856587</v>
       </c>
       <c r="H8">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>6.7332439947665286</v>
+        <v>6.271887649907284</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>0.93315871399629147</v>
+        <v>1.0018013169085498</v>
       </c>
       <c r="K8">
-        <f>C8/SQRT(D8)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M8">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O8">
         <v>0.5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q8">
@@ -1742,39 +1768,40 @@
         <v>98000</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T8">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <f>T8*SQRT((O8/N8)^2+4*(Q8/P8)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V8">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W8">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X8">
         <f t="shared" si="2"/>
-        <v>1.3828663320387429</v>
+        <v>1.3828596478133262</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="8"/>
-        <v>0.28114322429834276</v>
+        <f t="shared" si="9"/>
+        <v>0.20224351722842904</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="9"/>
-        <v>1.6039886647863304</v>
+        <f t="shared" si="10"/>
+        <v>1.3917044983705353</v>
       </c>
       <c r="AB8">
         <f>AVERAGE(Z2:Z11)</f>
-        <v>1.617640953623632</v>
+        <v>1.4053567212181077</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1788,54 +1815,57 @@
         <v>3.97</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
+        <f>B9/D9</f>
         <v>0.99250000000000005</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <f>C9/SQRT(D9)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>6.3306652969063837</v>
       </c>
       <c r="H9">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>6.8064177877540546</v>
+        <v>6.3503797604123484</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>0.92312659949909981</v>
+        <v>0.98941882914599122</v>
       </c>
       <c r="K9">
-        <f>C9/SQRT(D9)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M9">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O9">
         <v>0.5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q9">
@@ -1846,35 +1876,36 @@
         <v>98000</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <f>T9*SQRT((O9/N9)^2+4*(Q9/P9)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V9">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W9">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>1.4179185879155944</v>
+        <v>1.4179117342615248</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="8"/>
-        <v>0.29174907257388044</v>
+        <f t="shared" si="9"/>
+        <v>0.20977455298728531</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="9"/>
-        <v>1.6390409206631822</v>
+        <f t="shared" si="10"/>
+        <v>1.4267565848187349</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1888,54 +1919,57 @@
         <v>4.09</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
+        <f>B10/D10</f>
         <v>1.0225</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <f>C10/SQRT(D10)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>6.1449245057991062</v>
       </c>
       <c r="H10">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>6.6340106407791044</v>
+        <v>6.1652329381760094</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>0.94711715844364142</v>
+        <v>1.01913185928032</v>
       </c>
       <c r="K10">
-        <f>C10/SQRT(D10)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M10">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O10">
         <v>0.5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q10">
@@ -1946,35 +1980,36 @@
         <v>98000</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <f>T10*SQRT((O10/N10)^2+4*(Q10/P10)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W10">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>1.3359361237844642</v>
+        <v>1.3359296664009941</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="8"/>
-        <v>0.26714980987025305</v>
+        <f t="shared" si="9"/>
+        <v>0.19230484434269049</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="9"/>
-        <v>1.5570584565320511</v>
+        <f t="shared" si="10"/>
+        <v>1.3447745169582037</v>
       </c>
       <c r="AB10" t="s">
         <v>36</v>
@@ -1991,54 +2026,57 @@
         <v>4.03</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
+        <f>B11/D11</f>
         <v>1.0075000000000001</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <f>C11/SQRT(D11)</f>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>6.2364122155628641</v>
       </c>
       <c r="H11">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>6.7188419628996865</v>
+        <v>6.2564236846957311</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>0.93515896666036757</v>
+        <v>1.0042774632653666</v>
       </c>
       <c r="K11">
-        <f>C11/SQRT(D11)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.83</v>
       </c>
       <c r="M11">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="N11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O11">
         <v>0.5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="Q11">
@@ -2049,35 +2087,36 @@
         <v>98000</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="T11">
-        <f t="shared" si="1"/>
-        <v>779.85922115028723</v>
+        <f t="shared" si="6"/>
+        <v>780.33668597956284</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <f>T11*SQRT((O11/N11)^2+4*(Q11/P11)^2)</f>
+        <v>26.264010369081944</v>
       </c>
       <c r="V11">
-        <f t="shared" si="6"/>
-        <v>98779.859221150284</v>
+        <f t="shared" si="7"/>
+        <v>98780.336685979564</v>
       </c>
       <c r="W11">
-        <f t="shared" si="7"/>
-        <v>19.625493624365223</v>
+        <f t="shared" si="8"/>
+        <v>32.771302089896338</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>1.376011986545012</v>
+        <v>1.3760053354507733</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="8"/>
-        <v>0.27908462191927186</v>
+        <f t="shared" si="9"/>
+        <v>0.20078157672777519</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="9"/>
-        <v>1.5971343192925995</v>
+        <f t="shared" si="10"/>
+        <v>1.3848501860079829</v>
       </c>
       <c r="AC11">
         <v>0</v>

--- a/Versuch10/datasets/schwing2.xlsx
+++ b/Versuch10/datasets/schwing2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch10\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38960BED-8E30-4CB4-8091-96F9E5D3C2C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2C9D714-60A4-4D41-93F5-44261F75857C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="6036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,11 +1082,11 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <f>B2/D2</f>
+        <f t="shared" ref="E2:E11" si="0">B2/D2</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>C2/SQRT(D2)</f>
+        <f t="shared" ref="F2:F11" si="1">C2/SQRT(D2)</f>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G2">
@@ -1105,14 +1105,14 @@
         <v>0.99684867215032902</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K11" si="0">C2/SQRT(D2)</f>
+        <f t="shared" ref="K2:K11" si="2">C2/SQRT(D2)</f>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L2">
         <v>8.83</v>
       </c>
       <c r="M2">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -1127,43 +1127,43 @@
         <v>0.1</v>
       </c>
       <c r="R2">
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S11" si="1">R2*0.0002</f>
-        <v>19.600000000000001</v>
+        <f t="shared" ref="S2:S11" si="3">R2*0.0002</f>
+        <v>18.977600000000002</v>
       </c>
       <c r="T2">
         <f>4000*N2*9.806/(P2^2*PI())</f>
         <v>780.33668597956284</v>
       </c>
       <c r="U2">
-        <f>T2*SQRT((O2/N2)^2+4*(Q2/P2)^2)</f>
+        <f t="shared" ref="U2:U11" si="4">T2*SQRT((O2/N2)^2+4*(Q2/P2)^2)</f>
         <v>26.264010369081944</v>
       </c>
       <c r="V2">
         <f>R2+T2</f>
-        <v>98780.336685979564</v>
+        <v>95668.336685979564</v>
       </c>
       <c r="W2">
         <f>SQRT(S2^2+U2^2)</f>
-        <v>32.771302089896338</v>
+        <v>32.402894044008541</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X11" si="2">10^6*64*L2*N2/(E2^2*P2^4*(R2+T2))</f>
-        <v>1.3967228157826543</v>
+        <f t="shared" ref="X2:X11" si="5">10^6*64*L2*N2/(E2^2*P2^4*(R2+T2))</f>
+        <v>1.4421568805242924</v>
       </c>
       <c r="Y2">
         <f>X2*SQRT((O2/N2)^2+(M2/L2)^2+4*(F2/E2)^2+16*(Q2/P2)^2+(W2/V2^2))</f>
-        <v>0.20521111269043452</v>
+        <v>0.21143273654072448</v>
       </c>
       <c r="Z2">
         <f>10^6*64*L2*N2/(J2^2*P2^4*(R2+T2))</f>
-        <v>1.4055676663398644</v>
+        <v>1.451289445657584</v>
       </c>
       <c r="AB2">
         <f>AVERAGE(X2:X11)</f>
-        <v>1.3965118706608979</v>
+        <v>1.4419390735583604</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1184,15 +1184,15 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f>B3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.99750000000000005</v>
       </c>
       <c r="F3">
-        <f>C3/SQRT(D3)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="3">2*PI()/E3</f>
+        <f t="shared" ref="G3:G11" si="6">2*PI()/E3</f>
         <v>6.2989326387765274</v>
       </c>
       <c r="H3">
@@ -1200,15 +1200,15 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="4">SQRT(G3^2+H3^2/4)</f>
+        <f t="shared" ref="I3:I11" si="7">SQRT(G3^2+H3^2/4)</f>
         <v>6.3187461088292052</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="5">2*PI()/I3</f>
+        <f t="shared" ref="J3:J11" si="8">2*PI()/I3</f>
         <v>0.99437217431478542</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L3">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="M3">
         <f>M2</f>
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="N3">
         <f>N2</f>
@@ -1235,39 +1235,39 @@
       </c>
       <c r="R3">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T11" si="6">4000*N3*9.806/(P3^2*PI())</f>
+        <f t="shared" ref="T3:T11" si="9">4000*N3*9.806/(P3^2*PI())</f>
         <v>780.33668597956284</v>
       </c>
       <c r="U3">
-        <f>T3*SQRT((O3/N3)^2+4*(Q3/P3)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V11" si="7">R3+T3</f>
-        <v>98780.336685979564</v>
+        <f t="shared" ref="V3:V11" si="10">R3+T3</f>
+        <v>95668.336685979564</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W11" si="8">SQRT(S3^2+U3^2)</f>
-        <v>32.771302089896338</v>
+        <f t="shared" ref="W3:W11" si="11">SQRT(S3^2+U3^2)</f>
+        <v>32.402894044008541</v>
       </c>
       <c r="X3">
         <f>10^6*64*L3*N3/(E3^2*P3^4*(R3+T3))</f>
-        <v>1.4037327059831575</v>
+        <v>1.4493947957857471</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y11" si="9">X3*SQRT((O3/N3)^2+(M3/L3)^2+4*(F3/E3)^2+16*(Q3/P3)^2+(W3/V3^2))</f>
-        <v>0.2067171330107013</v>
+        <f t="shared" ref="Y3:Y11" si="12">X3*SQRT((O3/N3)^2+(M3/L3)^2+4*(F3/E3)^2+16*(Q3/P3)^2+(W3/V3^2))</f>
+        <v>0.2129865216756413</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z11" si="10">10^6*64*L3*N3/(J3^2*P3^4*(R3+T3))</f>
-        <v>1.4125775565403671</v>
+        <f t="shared" ref="Z3:Z11" si="13">10^6*64*L3*N3/(J3^2*P3^4*(R3+T3))</f>
+        <v>1.4585273609190386</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1281,47 +1281,47 @@
         <v>4.03</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="11">C3</f>
+        <f t="shared" ref="C4:C11" si="14">C3</f>
         <v>0.14099999999999999</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <f>B4/D4</f>
+        <f t="shared" si="0"/>
         <v>1.0075000000000001</v>
       </c>
       <c r="F4">
-        <f>C4/SQRT(D4)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2364122155628641</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="12">H3</f>
+        <f t="shared" ref="H4:H11" si="15">H3</f>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.2564236846957311</v>
       </c>
       <c r="J4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0042774632653666</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:M11" si="13">L3</f>
+        <f t="shared" ref="L4:M11" si="16">L3</f>
         <v>8.83</v>
       </c>
       <c r="M4">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N4">
         <f>N3</f>
@@ -1331,7 +1331,7 @@
         <v>0.5</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P11" si="14">P3</f>
+        <f t="shared" ref="P4:P11" si="17">P3</f>
         <v>16</v>
       </c>
       <c r="Q4">
@@ -1339,39 +1339,39 @@
       </c>
       <c r="R4">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U4">
-        <f>T4*SQRT((O4/N4)^2+4*(Q4/P4)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V4">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W4">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
-        <v>1.3760053354507733</v>
+        <f t="shared" si="5"/>
+        <v>1.4207654802620959</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="9"/>
-        <v>0.20078157672777519</v>
+        <f t="shared" si="12"/>
+        <v>0.20686275030259266</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="10"/>
-        <v>1.3848501860079829</v>
+        <f t="shared" si="13"/>
+        <v>1.4298980453953869</v>
       </c>
       <c r="AB4" t="s">
         <v>26</v>
@@ -1388,57 +1388,57 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <f>B5/D5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>C5/SQRT(D5)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="H5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.3030482787582578</v>
       </c>
       <c r="J5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.99684867215032902</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M5">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N11" si="15">N4</f>
+        <f t="shared" ref="N5:N11" si="18">N4</f>
         <v>16</v>
       </c>
       <c r="O5">
         <v>0.5</v>
       </c>
       <c r="P5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q5">
@@ -1446,43 +1446,43 @@
       </c>
       <c r="R5">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U5">
-        <f>T5*SQRT((O5/N5)^2+4*(Q5/P5)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V5">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W5">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
-        <v>1.3967228157826543</v>
+        <f t="shared" si="5"/>
+        <v>1.4421568805242924</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="9"/>
-        <v>0.20521111269043452</v>
+        <f t="shared" si="12"/>
+        <v>0.21143273654072448</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="10"/>
-        <v>1.4055676663398644</v>
+        <f t="shared" si="13"/>
+        <v>1.451289445657584</v>
       </c>
       <c r="AB5">
-        <f>AVERAGE(Y2:Y11)</f>
-        <v>0.20519955061045492</v>
+        <f>AVERAGE(Y2:Y11)/SQRT(10)</f>
+        <v>6.6857147884594945E-2</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1496,57 +1496,57 @@
         <v>3.95</v>
       </c>
       <c r="C6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <f>B6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.98750000000000004</v>
       </c>
       <c r="F6">
-        <f>C6/SQRT(D6)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.362719298409707</v>
       </c>
       <c r="H6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.382334750728397</v>
       </c>
       <c r="J6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.98446501986792601</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M6">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O6">
         <v>0.5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q6">
@@ -1554,39 +1554,39 @@
       </c>
       <c r="R6">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U6">
-        <f>T6*SQRT((O6/N6)^2+4*(Q6/P6)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V6">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W6">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
-        <v>1.4323066849878203</v>
+        <f t="shared" si="5"/>
+        <v>1.4788982591500512</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="9"/>
-        <v>0.21289375750125766</v>
+        <f t="shared" si="12"/>
+        <v>0.2193591072128829</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="10"/>
-        <v>1.4411515355450299</v>
+        <f t="shared" si="13"/>
+        <v>1.4880308242833424</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1600,57 +1600,57 @@
         <v>3.93</v>
       </c>
       <c r="C7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.98250000000000004</v>
       </c>
       <c r="F7">
-        <f>C7/SQRT(D7)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3950995492921994</v>
       </c>
       <c r="H7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.4146159858059537</v>
       </c>
       <c r="J7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.97951074874673827</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M7">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O7">
         <v>0.5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q7">
@@ -1658,39 +1658,39 @@
       </c>
       <c r="R7">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U7">
-        <f>T7*SQRT((O7/N7)^2+4*(Q7/P7)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V7">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W7">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
-        <v>1.4469219646953018</v>
+        <f t="shared" si="5"/>
+        <v>1.4939889600054823</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="9"/>
-        <v>0.21607632219776635</v>
+        <f t="shared" si="12"/>
+        <v>0.22264268155715708</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="10"/>
-        <v>1.4557668152525114</v>
+        <f t="shared" si="13"/>
+        <v>1.5031215251387735</v>
       </c>
       <c r="AB7" t="s">
         <v>35</v>
@@ -1707,57 +1707,57 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <f>B8/D8</f>
+        <f t="shared" si="0"/>
         <v>1.0049999999999999</v>
       </c>
       <c r="F8">
-        <f>C8/SQRT(D8)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2519256787856587</v>
       </c>
       <c r="H8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.271887649907284</v>
       </c>
       <c r="J8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0018013169085498</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M8">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O8">
         <v>0.5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q8">
@@ -1765,43 +1765,43 @@
       </c>
       <c r="R8">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U8">
-        <f>T8*SQRT((O8/N8)^2+4*(Q8/P8)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V8">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W8">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
-        <v>1.3828596478133262</v>
+        <f t="shared" si="5"/>
+        <v>1.4278427568865053</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="9"/>
-        <v>0.20224351722842904</v>
+        <f t="shared" si="12"/>
+        <v>0.20837103943226404</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="10"/>
-        <v>1.3917044983705353</v>
+        <f t="shared" si="13"/>
+        <v>1.4369753220197965</v>
       </c>
       <c r="AB8">
         <f>AVERAGE(Z2:Z11)</f>
-        <v>1.4053567212181077</v>
+        <v>1.4510716386916513</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1815,57 +1815,57 @@
         <v>3.97</v>
       </c>
       <c r="C9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <f>B9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.99250000000000005</v>
       </c>
       <c r="F9">
-        <f>C9/SQRT(D9)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3306652969063837</v>
       </c>
       <c r="H9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.3503797604123484</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.98941882914599122</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M9">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O9">
         <v>0.5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q9">
@@ -1873,39 +1873,39 @@
       </c>
       <c r="R9">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U9">
-        <f>T9*SQRT((O9/N9)^2+4*(Q9/P9)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V9">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W9">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
-        <v>1.4179117342615248</v>
+        <f t="shared" si="5"/>
+        <v>1.4640350543680041</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="9"/>
-        <v>0.20977455298728531</v>
+        <f t="shared" si="12"/>
+        <v>0.21614092942940197</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="10"/>
-        <v>1.4267565848187349</v>
+        <f t="shared" si="13"/>
+        <v>1.4731676195012957</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1919,57 +1919,57 @@
         <v>4.09</v>
       </c>
       <c r="C10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
-        <f>B10/D10</f>
+        <f t="shared" si="0"/>
         <v>1.0225</v>
       </c>
       <c r="F10">
-        <f>C10/SQRT(D10)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1449245057991062</v>
       </c>
       <c r="H10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.1652329381760094</v>
       </c>
       <c r="J10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.01913185928032</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M10">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O10">
         <v>0.5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q10">
@@ -1977,39 +1977,39 @@
       </c>
       <c r="R10">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U10">
-        <f>T10*SQRT((O10/N10)^2+4*(Q10/P10)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V10">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W10">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
-        <v>1.3359296664009941</v>
+        <f t="shared" si="5"/>
+        <v>1.3793861878150346</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="9"/>
-        <v>0.19230484434269049</v>
+        <f t="shared" si="12"/>
+        <v>0.19811739878630069</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="10"/>
-        <v>1.3447745169582037</v>
+        <f t="shared" si="13"/>
+        <v>1.3885187529483256</v>
       </c>
       <c r="AB10" t="s">
         <v>36</v>
@@ -2026,57 +2026,57 @@
         <v>4.03</v>
       </c>
       <c r="C11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <f>B11/D11</f>
+        <f t="shared" si="0"/>
         <v>1.0075000000000001</v>
       </c>
       <c r="F11">
-        <f>C11/SQRT(D11)</f>
+        <f t="shared" si="1"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2364122155628641</v>
       </c>
       <c r="H11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.2564236846957311</v>
       </c>
       <c r="J11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0042774632653666</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.83</v>
       </c>
       <c r="M11">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f t="shared" si="16"/>
+        <v>0.03</v>
       </c>
       <c r="N11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O11">
         <v>0.5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="Q11">
@@ -2084,39 +2084,39 @@
       </c>
       <c r="R11">
         <f>R2</f>
-        <v>98000</v>
+        <v>94888</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>18.977600000000002</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>780.33668597956284</v>
       </c>
       <c r="U11">
-        <f>T11*SQRT((O11/N11)^2+4*(Q11/P11)^2)</f>
+        <f t="shared" si="4"/>
         <v>26.264010369081944</v>
       </c>
       <c r="V11">
-        <f t="shared" si="7"/>
-        <v>98780.336685979564</v>
+        <f t="shared" si="10"/>
+        <v>95668.336685979564</v>
       </c>
       <c r="W11">
-        <f t="shared" si="8"/>
-        <v>32.771302089896338</v>
+        <f t="shared" si="11"/>
+        <v>32.402894044008541</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>1.3760053354507733</v>
+        <f t="shared" si="5"/>
+        <v>1.4207654802620959</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="9"/>
-        <v>0.20078157672777519</v>
+        <f t="shared" si="12"/>
+        <v>0.20686275030259266</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="10"/>
-        <v>1.3848501860079829</v>
+        <f t="shared" si="13"/>
+        <v>1.4298980453953869</v>
       </c>
       <c r="AC11">
         <v>0</v>
